--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2238374.30736862</v>
+        <v>2344447.905521465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9464925.272566771</v>
+        <v>9480077.187694501</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>20.02250045837639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>219.794654409776</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>143.2023187536728</v>
+        <v>6.700295178447398</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>25.12229069955405</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>129.6633107558673</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.8113584107186771</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>51.10408619557755</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9494523958893</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.28190385754367</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>111.0586713490314</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.4908548265388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>111.5361117049702</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671011595</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>259.5331726259205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>220.4289331391115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>134.3262991707162</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>35.02467705292102</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>113.6427030833253</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>156.3923706291113</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>279.4578096667698</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505493</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>59.00369384633011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>200.2162519639169</v>
+        <v>259.1946486785683</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.96788793061765</v>
+        <v>78.71385496658219</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722638</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,16 +3325,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>95.81917536083691</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>90.14863908058143</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444127</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>139.188673966789</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3791,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="T43" t="n">
-        <v>106.1949878935057</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>126.9927435506632</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.300932605789</v>
+        <v>1798.734238163264</v>
       </c>
       <c r="C2" t="n">
-        <v>806.3384156653772</v>
+        <v>1798.734238163264</v>
       </c>
       <c r="D2" t="n">
-        <v>806.3384156653772</v>
+        <v>1440.468539556513</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>1054.680286958269</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>643.6943821686616</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669911</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>520.4109910936372</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>815.114548125109</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.5394227759724</v>
+        <v>524.9806774183635</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6032398480655</v>
+        <v>356.0444944904566</v>
       </c>
       <c r="D4" t="n">
-        <v>308.4866004357298</v>
+        <v>205.9278550781209</v>
       </c>
       <c r="E4" t="n">
-        <v>308.4866004357298</v>
+        <v>58.01476149572775</v>
       </c>
       <c r="F4" t="n">
-        <v>308.4866004357298</v>
+        <v>58.01476149572775</v>
       </c>
       <c r="G4" t="n">
-        <v>308.4866004357298</v>
+        <v>58.01476149572775</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="X4" t="n">
-        <v>809.1878876062121</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.1878876062121</v>
+        <v>706.6291422486032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>862.7603812219263</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>862.7603812219263</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.124556099686</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.355900829572</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.890142568492</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622424</v>
+        <v>518.0825382046743</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>518.0825382046743</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>367.9658987923385</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>220.0528052099454</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>220.0528052099454</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>52.066340518224</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>52.066340518224</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1875.674259002051</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1653.907643571577</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1364.80477669722</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1364.80477669722</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>1075.38760666026</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X7" t="n">
-        <v>847.3980557622424</v>
+        <v>699.731003034914</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.3980557622424</v>
+        <v>699.731003034914</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032431</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3170.585957320566</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3170.585957320566</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4893,40 +4895,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.2351809199101</v>
+        <v>741.7508393439807</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>741.7508393439807</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>591.634199931645</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>443.7211063492518</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>443.7211063492518</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>276.0182697239708</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>969.7403902419981</v>
       </c>
       <c r="X10" t="n">
-        <v>1037.177438504229</v>
+        <v>741.7508393439807</v>
       </c>
       <c r="Y10" t="n">
-        <v>856.8836457501499</v>
+        <v>741.7508393439807</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2598873597751</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>943.5102657467545</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373306</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487574</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510515</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854712</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648825</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1171.546645824663</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1171.546645824663</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.7540666811332</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>917.5010142286973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>767.3843748163615</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>120.1346509896242</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3659.984780604089</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>3659.984780604089</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4211.894510843376</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>768.5380889459632</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>599.6019060180563</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>599.6019060180563</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5922,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.96868381775</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919733</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537762029</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6066,22 +6068,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2782.606412358944</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>2782.606412358944</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>2632.489772946608</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>2484.576679364215</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4465.815357106439</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4246.21389212938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3957.138665473578</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>3702.454177267691</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>3413.037007230731</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X25" t="n">
-        <v>3185.047456332713</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>2964.254877189183</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399322</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>4285.815356953929</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2441.897539132588</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1628.786163100837</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.368993063877</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.379442165859</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1842.268145910715</v>
+        <v>3959.518372885843</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.583657704828</v>
+        <v>3704.833884679956</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.166487667867</v>
+        <v>3415.416714642995</v>
       </c>
       <c r="X31" t="n">
-        <v>1070.17693676985</v>
+        <v>3415.416714642995</v>
       </c>
       <c r="Y31" t="n">
-        <v>849.3843576263199</v>
+        <v>3194.624135499465</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6734,16 +6736,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2567.280686761778</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2644.045655650152</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831311</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070598</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.19349744548</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290468</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011399</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,37 +6952,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>3266.400361191265</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>3097.464178263358</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>2947.347538851023</v>
       </c>
       <c r="E37" t="n">
-        <v>414.4022433768874</v>
+        <v>2799.43444526863</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578603</v>
+        <v>2652.544497770719</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>4186.248126100013</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>3896.830956063052</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>3668.841405165035</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>3448.048826021505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7196,28 +7198,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.866460342035</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>809.0422355233313</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T43" t="n">
-        <v>2272.649715293768</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U43" t="n">
-        <v>1983.574488637966</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1728.890000432079</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1439.472830395119</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.483279497101</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.6907003535711</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2233.355914590558</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>2728.681520806317</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3326.060008432869</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3953.657971987476</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>766.1780053015053</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>618.2649117191122</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>471.3749642212018</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>304.1788649360818</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>98.24448441976887</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-5.20845298070512e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>68.29586847696709</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>26.98982571067046</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>66.09406519747947</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>12.107663475853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>55.21102825632968</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>113.5907959652913</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>32.7912595632439</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>24.63391537253332</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>7.065188669821168</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>143.6212754172139</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>193.1339494774979</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>85.96822242532721</v>
+        <v>26.98982571067586</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.8640922513196</v>
+        <v>101.1181252153551</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>49.60187266209434</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>75.37549921168741</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>146.9958004224551</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>9.000252501565598</v>
       </c>
       <c r="T43" t="n">
-        <v>111.2104624337825</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>13.30196929556064</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>828971.0414094437</v>
+        <v>836695.5471608358</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>828971.0414094437</v>
+        <v>836695.5471608358</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815075.8712351666</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.596890472448789e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819055</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309561</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309558</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744393</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744333</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744395</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26445,19 +26447,19 @@
         <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744171</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744404</v>
+        <v>8727.256391744259</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-908811.6500538694</v>
+        <v>-727430.3655945349</v>
       </c>
       <c r="C6" t="n">
-        <v>419933.0956737234</v>
+        <v>387321.4179813846</v>
       </c>
       <c r="D6" t="n">
-        <v>419933.0956737234</v>
+        <v>227305.9552333855</v>
       </c>
       <c r="E6" t="n">
-        <v>170097.7017444978</v>
+        <v>170097.7017444984</v>
       </c>
       <c r="F6" t="n">
-        <v>495510.163551853</v>
+        <v>495510.1635518528</v>
       </c>
       <c r="G6" t="n">
         <v>495510.1635518529</v>
       </c>
       <c r="H6" t="n">
+        <v>495510.1635518529</v>
+      </c>
+      <c r="I6" t="n">
+        <v>495510.163551853</v>
+      </c>
+      <c r="J6" t="n">
+        <v>327904.9857418704</v>
+      </c>
+      <c r="K6" t="n">
+        <v>495510.1635518529</v>
+      </c>
+      <c r="L6" t="n">
+        <v>447216.1935436623</v>
+      </c>
+      <c r="M6" t="n">
+        <v>410455.1356163413</v>
+      </c>
+      <c r="N6" t="n">
         <v>495510.1635518526</v>
       </c>
-      <c r="I6" t="n">
-        <v>495510.1635518527</v>
-      </c>
-      <c r="J6" t="n">
-        <v>277978.9611545757</v>
-      </c>
-      <c r="K6" t="n">
-        <v>495510.163551853</v>
-      </c>
-      <c r="L6" t="n">
-        <v>495510.163551853</v>
-      </c>
-      <c r="M6" t="n">
-        <v>410455.1356163409</v>
-      </c>
-      <c r="N6" t="n">
-        <v>495510.163551853</v>
-      </c>
       <c r="O6" t="n">
-        <v>495510.1635518531</v>
+        <v>495510.1635518532</v>
       </c>
       <c r="P6" t="n">
-        <v>495510.1635518531</v>
+        <v>495510.1635518529</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973553</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.8166233022538</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>361.9078696138854</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>191.753048363178</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>1.552696160647997</v>
+        <v>140.5512139766815</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>381.7537550421574</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>198.0889477142676</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>103.9852367931819</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>138.6649391358644</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>313.3234393751183</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>159.6360662820765</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>33.69634356528941</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.09379852555597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="21">
@@ -28992,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.922931578058079e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29806,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30043,10 +30045,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-5.694459048987302e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30220,19 +30222,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30283,13 +30285,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.996113090560987e-14</v>
       </c>
     </row>
     <row r="39">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>147.4873481937407</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181836</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347666</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>345.1232217852619</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O27" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722591</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943938</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,28 +33736,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>223.6976288294623</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>284.8319806632537</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>20.64972152707399</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961653</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127483</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>211.1488143709317</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899123</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O27" t="n">
-        <v>173.4910455250327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502408</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451957</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>44.0916319071262</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>81.10138438501788</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2344447.905521465</v>
+        <v>2340352.264016698</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>219.794654409776</v>
+        <v>273.5139697469073</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.700295178447398</v>
+        <v>51.27659234081882</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>114.1460214218941</v>
       </c>
       <c r="F5" t="n">
-        <v>25.12229069955405</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8113584107186771</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>207.2193843771516</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>184.4241132557161</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292592</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>44.28190385754367</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>111.0586713490314</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>102.6418808591209</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.5361117049702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>93.07916359105462</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>45.66054613217656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>26.05480806223585</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,13 +2134,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>113.6427030833253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,19 +2532,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>279.4578096667698</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>21.90286287505493</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>182.4443919360877</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>259.1946486785683</v>
+        <v>205.7440206868702</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.71385496658219</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722638</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695258</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,10 +3325,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>90.14863908058143</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3562,13 +3562,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>26.05480806223644</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1798.734238163264</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C2" t="n">
-        <v>1798.734238163264</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="D2" t="n">
-        <v>1440.468539556513</v>
+        <v>1494.730474240484</v>
       </c>
       <c r="E2" t="n">
-        <v>1054.680286958269</v>
+        <v>1108.94222164224</v>
       </c>
       <c r="F2" t="n">
-        <v>643.6943821686616</v>
+        <v>697.9563168526327</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4109910936372</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>524.9806774183635</v>
+        <v>716.897187706548</v>
       </c>
       <c r="C4" t="n">
-        <v>356.0444944904566</v>
+        <v>547.9610047786412</v>
       </c>
       <c r="D4" t="n">
-        <v>205.9278550781209</v>
+        <v>397.8443653663054</v>
       </c>
       <c r="E4" t="n">
-        <v>58.01476149572775</v>
+        <v>249.9312717839123</v>
       </c>
       <c r="F4" t="n">
-        <v>58.01476149572775</v>
+        <v>103.0413242860019</v>
       </c>
       <c r="G4" t="n">
-        <v>58.01476149572775</v>
+        <v>103.0413242860019</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4488,16 +4488,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.838891429094</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>927.4217213921333</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X4" t="n">
-        <v>927.4217213921333</v>
+        <v>1119.338231680318</v>
       </c>
       <c r="Y4" t="n">
-        <v>706.6291422486032</v>
+        <v>898.5456525367878</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.988596769088</v>
+        <v>1363.66924633713</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.026079828677</v>
+        <v>1363.66924633713</v>
       </c>
       <c r="D5" t="n">
-        <v>862.7603812219263</v>
+        <v>1363.66924633713</v>
       </c>
       <c r="E5" t="n">
-        <v>862.7603812219263</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
         <v>837.3843300102556</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.1279287449</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.988596769088</v>
+        <v>1363.66924633713</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.0825382046743</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="C7" t="n">
-        <v>518.0825382046743</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9658987923385</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>220.0528052099454</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>220.0528052099454</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>52.066340518224</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>52.066340518224</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>927.7205539329314</v>
+        <v>1172.44912239674</v>
       </c>
       <c r="X7" t="n">
-        <v>699.731003034914</v>
+        <v>1172.44912239674</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.731003034914</v>
+        <v>951.6565432532102</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179771</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>599.3250994197329</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>592.3795986705294</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3170.585957320566</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3170.585957320566</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2839.523069976995</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2839.523069976995</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X8" t="n">
-        <v>2466.057311715915</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.7508393439807</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>741.7508393439807</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>591.634199931645</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>443.7211063492518</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>443.7211063492518</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>276.0182697239708</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278959</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419981</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X10" t="n">
-        <v>741.7508393439807</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>741.7508393439807</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.329899359456</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8464821474262</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>120.1346509896242</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459632</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180563</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>599.6019060180563</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510513</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854711</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854711</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.96868381775</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919733</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537762029</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,25 +6217,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630498</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630498</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630498</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2441.897539132588</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3194.624135499465</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>3025.687952571559</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3959.518372885843</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V31" t="n">
-        <v>3704.833884679956</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W31" t="n">
-        <v>3415.416714642995</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X31" t="n">
-        <v>3415.416714642995</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y31" t="n">
-        <v>3194.624135499465</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3266.400361191265</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3097.464178263358</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2947.347538851023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2799.43444526863</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2652.544497770719</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4440.9326143059</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>4186.248126100013</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3896.830956063052</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3668.841405165035</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3448.048826021505</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,7 +7186,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>98.24448441976887</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>240.4465442417436</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-5.20845298070512e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.29586847696709</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>125.5054897610402</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>55.21102825632968</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>147.0213775686976</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>32.7912595632439</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>7.065188669821168</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>143.6212754172139</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>43.26526345294943</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>26.98982571067586</v>
+        <v>80.44045370237399</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.1181252153551</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>75.37549921168741</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>40.32043864788521</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351662</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675047</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="O2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403382</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.596890472448789e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819055</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744333</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744395</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744171</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744259</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-727430.3655945349</v>
       </c>
       <c r="C6" t="n">
-        <v>387321.4179813846</v>
+        <v>387321.4179813847</v>
       </c>
       <c r="D6" t="n">
-        <v>227305.9552333855</v>
+        <v>227305.9552333857</v>
       </c>
       <c r="E6" t="n">
-        <v>170097.7017444984</v>
+        <v>169750.3224901409</v>
       </c>
       <c r="F6" t="n">
-        <v>495510.1635518528</v>
+        <v>495162.7842974958</v>
       </c>
       <c r="G6" t="n">
-        <v>495510.1635518529</v>
+        <v>495162.7842974959</v>
       </c>
       <c r="H6" t="n">
-        <v>495510.1635518529</v>
+        <v>495162.7842974958</v>
       </c>
       <c r="I6" t="n">
-        <v>495510.163551853</v>
+        <v>495162.7842974964</v>
       </c>
       <c r="J6" t="n">
-        <v>327904.9857418704</v>
+        <v>327557.6064875133</v>
       </c>
       <c r="K6" t="n">
-        <v>495510.1635518529</v>
+        <v>495162.7842974959</v>
       </c>
       <c r="L6" t="n">
-        <v>447216.1935436623</v>
+        <v>446868.8142893051</v>
       </c>
       <c r="M6" t="n">
-        <v>410455.1356163413</v>
+        <v>410107.7563619839</v>
       </c>
       <c r="N6" t="n">
-        <v>495510.1635518526</v>
+        <v>495162.7842974959</v>
       </c>
       <c r="O6" t="n">
-        <v>495510.1635518532</v>
+        <v>495162.7842974958</v>
       </c>
       <c r="P6" t="n">
-        <v>495510.1635518529</v>
+        <v>495162.7842974958</v>
       </c>
     </row>
   </sheetData>
@@ -26703,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>191.753048363178</v>
+        <v>138.0337330260467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>140.5512139766815</v>
+        <v>95.97491681431002</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>267.7843486503677</v>
       </c>
       <c r="F5" t="n">
-        <v>381.7537550421574</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>103.9852367931819</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>79.30361395943945</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>226.4976123977374</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>159.6360662820765</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>33.69634356528941</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>123.0677745299162</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.922931578058079e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30045,10 +30045,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.694459048987302e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30222,19 +30222,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30285,13 +30285,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>244.0266243181836</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,34 +33259,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>284.8319806632537</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>631.6436438346176</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>101.8925903961653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899123</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37551,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37630,22 +37630,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37788,7 +37788,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2340352.264016698</v>
+        <v>2342112.794319483</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>255.4284381165589</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>273.5139697469073</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.557078931498</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>51.27659234081882</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>114.1460214218941</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>257.6856421316812</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>207.2193843771516</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>184.4241132557161</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>22.86125478512802</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>100.4709766241344</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>102.6418808591209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0.012762354735504</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.07916359105462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>223.1802217605471</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>139.1630968205466</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.355549430153</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>182.4443919360877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763727</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U31" t="n">
-        <v>205.7440206868702</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.05480806223644</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1852.996172847235</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C2" t="n">
-        <v>1852.996172847235</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D2" t="n">
-        <v>1494.730474240484</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>1108.94222164224</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>697.9563168526327</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4366,16 +4366,16 @@
         <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847235</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1852.996172847235</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.897187706548</v>
+        <v>927.5959500216837</v>
       </c>
       <c r="C4" t="n">
-        <v>547.9610047786412</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>397.8443653663054</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>249.9312717839123</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>103.0413242860019</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>103.0413242860019</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.327782578335</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.338231680318</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.5456525367878</v>
+        <v>1109.244414851923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.66924633713</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.66924633713</v>
+        <v>1384.846061372529</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.66924633713</v>
+        <v>1026.580362765779</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>1026.580362765779</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>615.5944579761715</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,13 +4585,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
@@ -4603,16 +4603,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583056</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312942</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312942</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.66924633713</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.0080784229705</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1172.44912239674</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1172.44912239674</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>951.6565432532102</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565139</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624728</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179771</v>
+        <v>897.4104964852691</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197329</v>
+        <v>511.6222438870248</v>
       </c>
       <c r="F8" t="n">
-        <v>592.3795986705294</v>
+        <v>100.6363390974172</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>89.6042929828178</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866153</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605073</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629261</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>899.9923811356281</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>731.0561982077212</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>580.9395587953854</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>433.0264652129923</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>433.0264652129923</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>265.3236285877113</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1450.843444452132</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.164776917667</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5244,7 +5244,7 @@
         <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1462.95128641981</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1173.53411638285</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>945.5445654848324</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>724.7519863413023</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.89229584329</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.207807637403</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5558870561822</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2043518864219</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.1522880254209</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>493.2161050975141</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.684541140056</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.000052934169</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1292.582882897208</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.593331999191</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.8007528556607</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>240.4465442417436</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8192178272018</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>28.95742156328092</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>43.26526345294943</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644575</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U31" t="n">
-        <v>80.44045370237399</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.32043864788521</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351662</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="15">
@@ -26316,37 +26316,37 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675047</v>
-      </c>
       <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309552</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26453,7 +26453,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-727430.3655945349</v>
       </c>
       <c r="C6" t="n">
-        <v>387321.4179813847</v>
+        <v>387321.4179813849</v>
       </c>
       <c r="D6" t="n">
-        <v>227305.9552333857</v>
+        <v>227305.9552333855</v>
       </c>
       <c r="E6" t="n">
-        <v>169750.3224901409</v>
+        <v>170062.963819062</v>
       </c>
       <c r="F6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="G6" t="n">
-        <v>495162.7842974959</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="H6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.4256264172</v>
       </c>
       <c r="I6" t="n">
-        <v>495162.7842974964</v>
+        <v>495475.425626417</v>
       </c>
       <c r="J6" t="n">
-        <v>327557.6064875133</v>
+        <v>327870.2478164344</v>
       </c>
       <c r="K6" t="n">
-        <v>495162.7842974959</v>
+        <v>495475.4256264172</v>
       </c>
       <c r="L6" t="n">
-        <v>446868.8142893051</v>
+        <v>447181.4556182263</v>
       </c>
       <c r="M6" t="n">
-        <v>410107.7563619839</v>
+        <v>410420.3976909053</v>
       </c>
       <c r="N6" t="n">
-        <v>495162.7842974959</v>
+        <v>495475.4256264172</v>
       </c>
       <c r="O6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.425626417</v>
       </c>
       <c r="P6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.425626417</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>109.8444536544487</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>138.0337330260467</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.68974216712986</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>95.97491681431002</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>267.7843486503677</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>153.8620606412728</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>79.30361395943945</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>226.4976123977374</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>271.7465096021924</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.28403829018634</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.0677745299162</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34789,7 +34789,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>631.6436438346176</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977094</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
